--- a/zpi-backend/src/test/resources/pracownicy-1.xlsx
+++ b/zpi-backend/src/test/resources/pracownicy-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\main\resources\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9D79C-DF0A-49FC-8D4C-2094A8457E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8DB9C9-29A3-409D-9615-1408C08692E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4062,8 +4062,8 @@
   </sheetPr>
   <dimension ref="A1:I375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/zpi-backend/src/test/resources/pracownicy-1.xlsx
+++ b/zpi-backend/src/test/resources/pracownicy-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8DB9C9-29A3-409D-9615-1408C08692E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F09C2B-D616-44A7-8193-17A3E140F2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wykaz pracowników" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="1212">
   <si>
     <t>Lp.</t>
   </si>
@@ -4062,8 +4062,8 @@
   </sheetPr>
   <dimension ref="A1:I375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5042,7 +5042,9 @@
       <c r="A37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C37" s="3" t="s">
         <v>154</v>
       </c>
